--- a/data/trans_dic/MCS12_SP_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5197774463966955</v>
+        <v>0.518297429505951</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4735666776240396</v>
+        <v>0.4730410756032114</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5845270381657224</v>
+        <v>0.5840224556723542</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4547905364497448</v>
+        <v>0.45805113961401</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6148703309553673</v>
+        <v>0.6146148075782066</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6198467570734868</v>
+        <v>0.6240843743388523</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6261029751251059</v>
+        <v>0.6266317855218577</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6027302166837291</v>
+        <v>0.6062964592510601</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5898012714543021</v>
+        <v>0.5899458326845616</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5589414682773685</v>
+        <v>0.5617753634085536</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.6166057578540191</v>
+        <v>0.6141202413416323</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5521511118353273</v>
+        <v>0.5493491685219469</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6025640316215527</v>
+        <v>0.6026840840657206</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5387441621538051</v>
+        <v>0.5382887999996651</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6440781634147796</v>
+        <v>0.6438640201403082</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5581291348887961</v>
+        <v>0.5599336669351992</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6774583100481102</v>
+        <v>0.6799745830871438</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6809191602760863</v>
+        <v>0.6829168801057361</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.679896547907927</v>
+        <v>0.6854801309896619</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6730228457682659</v>
+        <v>0.6789489575270974</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6405306706411784</v>
+        <v>0.6388714905681624</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6034272379155819</v>
+        <v>0.6028308728546038</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6553856188109672</v>
+        <v>0.655831186037518</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6138578684929564</v>
+        <v>0.6108260144454368</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.400487693035263</v>
+        <v>0.4029989794717828</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4678549919775722</v>
+        <v>0.4680162926748752</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4514127224708769</v>
+        <v>0.4518266492710534</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3675008463936444</v>
+        <v>0.3657301379042139</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4838859848781812</v>
+        <v>0.4866502671209404</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6002600928507642</v>
+        <v>0.5995782908640908</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4823026635006494</v>
+        <v>0.4832148744747154</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4630617628155181</v>
+        <v>0.4652387046706268</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4501624445605352</v>
+        <v>0.4521469898862663</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5449659087431042</v>
+        <v>0.5454819811208188</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4759964653096366</v>
+        <v>0.4767442765339946</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.425169273847694</v>
+        <v>0.4265848118202192</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4598118531076679</v>
+        <v>0.4634926132568302</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.53738763517178</v>
+        <v>0.5334830545017962</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5182847592022655</v>
+        <v>0.5169282823002721</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4343218023254849</v>
+        <v>0.4326542624548403</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5476344108810673</v>
+        <v>0.5495960534121589</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.658807591862102</v>
+        <v>0.6577260916242528</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5454840186664455</v>
+        <v>0.5478558112775828</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5159470062360524</v>
+        <v>0.5163638084937042</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4963827853402237</v>
+        <v>0.4944714657205457</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5884991411097973</v>
+        <v>0.5907193589856581</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5221052611923911</v>
+        <v>0.5226838104446194</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4702098726834757</v>
+        <v>0.4696145482873342</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.3846188757711356</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3616582854814794</v>
+        <v>0.3616582854814793</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.4675073818006036</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3239702316573471</v>
+        <v>0.3231332614411044</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4464800808091306</v>
+        <v>0.4457948301142713</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.351363549300988</v>
+        <v>0.3505751023440892</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3310161170906772</v>
+        <v>0.3332840297054624</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4383003497807126</v>
+        <v>0.4338615753602746</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5512013204883236</v>
+        <v>0.550035514873654</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.452736469533387</v>
+        <v>0.4568115384520322</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4030926426486498</v>
+        <v>0.399824443339267</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3850062978617437</v>
+        <v>0.3840329687103402</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5086768528611993</v>
+        <v>0.5084903336298867</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4087954251569819</v>
+        <v>0.4106562375521122</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3716374711544085</v>
+        <v>0.3740484496329463</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3827099528632388</v>
+        <v>0.3795365510458579</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.514158111793207</v>
+        <v>0.5143228093658434</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4222952607692981</v>
+        <v>0.4197338465913411</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3942148504902476</v>
+        <v>0.3935627815500523</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5002570441893872</v>
+        <v>0.4994207098202454</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6219849967295353</v>
+        <v>0.6195620654976179</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5263390814124354</v>
+        <v>0.5273351938153954</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.45694401873527</v>
+        <v>0.4543218930255763</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4292297758689299</v>
+        <v>0.4283783463366634</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5592614973519277</v>
+        <v>0.5588364897313646</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4616568833472964</v>
+        <v>0.4629052608367631</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4134172491941444</v>
+        <v>0.4146272920623132</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.4394051437584147</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.5360699402733194</v>
+        <v>0.5360699402733196</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.4827599755936132</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4027470687780546</v>
+        <v>0.4017817773522993</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4123700884805648</v>
+        <v>0.4067402418512534</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2935083658348189</v>
+        <v>0.296030032625047</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4199665763174509</v>
+        <v>0.4165705957850308</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4700843683395927</v>
+        <v>0.4753231901624393</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5307547605632288</v>
+        <v>0.5302534754091405</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3905595981105833</v>
+        <v>0.3934680270192479</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.507049483804522</v>
+        <v>0.5036547343856299</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4483757567118451</v>
+        <v>0.4481664209550303</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4811519713236301</v>
+        <v>0.4785143624050546</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3511505592383783</v>
+        <v>0.3592691788821347</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4700800973566324</v>
+        <v>0.4695779627670369</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4972851891499067</v>
+        <v>0.4979842836420996</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.505742416353761</v>
+        <v>0.5030541116721551</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3801407107163156</v>
+        <v>0.37999451018567</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4886038549522767</v>
+        <v>0.4909660383233676</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5770692917890875</v>
+        <v>0.5822997003924768</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6306449425306883</v>
+        <v>0.6239200629900485</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4844071773803614</v>
+        <v>0.4878197151432123</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5702603659574366</v>
+        <v>0.5646378965717169</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5157580289518648</v>
+        <v>0.5196593379019533</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5473344710747605</v>
+        <v>0.5485458715825218</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4177773415232553</v>
+        <v>0.4203660849265494</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5170380149998042</v>
+        <v>0.5166231217697644</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.515855329786104</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.464995208573868</v>
+        <v>0.4649952085738681</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4126131144824896</v>
+        <v>0.4120044471033475</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4741006408439469</v>
+        <v>0.4737800061571278</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4649632373377131</v>
+        <v>0.4637722554070022</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4005969365614164</v>
+        <v>0.3999629861703714</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5220142856318097</v>
+        <v>0.5223023674557361</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6010941748626891</v>
+        <v>0.6023709995180435</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5318734993567676</v>
+        <v>0.5319419163801992</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4933239177144998</v>
+        <v>0.4953967224156575</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4737945934269679</v>
+        <v>0.4719849361712666</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5430724636125346</v>
+        <v>0.5427502950734685</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5034580269533449</v>
+        <v>0.5037215609593806</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4517582528112593</v>
+        <v>0.4531965357529689</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4468820678751304</v>
+        <v>0.4471452035723876</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5074547683410703</v>
+        <v>0.5095211628329221</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4998888192084406</v>
+        <v>0.4992683670295106</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4360135896216514</v>
+        <v>0.4366873478237753</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5571297201757418</v>
+        <v>0.5568693665572019</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6344347372568219</v>
+        <v>0.6363247102234818</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5668162881551536</v>
+        <v>0.56559051986441</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5238180768737158</v>
+        <v>0.5237498837664267</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.497451510347012</v>
+        <v>0.4979568973830566</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5674999457002657</v>
+        <v>0.5684373316056139</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5278318392069962</v>
+        <v>0.5282979483981982</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4776619442348864</v>
+        <v>0.4766527181101831</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>303623</v>
+        <v>302759</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>494373</v>
+        <v>493824</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>659345</v>
+        <v>658776</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>224966</v>
+        <v>226579</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>567115</v>
+        <v>566880</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>694184</v>
+        <v>698930</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>788615</v>
+        <v>789281</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>373094</v>
+        <v>375301</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>888520</v>
+        <v>888738</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1209473</v>
+        <v>1215605</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1472182</v>
+        <v>1466248</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>614911</v>
+        <v>611790</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>351982</v>
+        <v>352052</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>562414</v>
+        <v>561939</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>726518</v>
+        <v>726277</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>276084</v>
+        <v>276976</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>624842</v>
+        <v>627163</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>762580</v>
+        <v>764818</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>856371</v>
+        <v>863404</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>416605</v>
+        <v>420273</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>964943</v>
+        <v>962443</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1305734</v>
+        <v>1304443</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1564771</v>
+        <v>1565835</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>683631</v>
+        <v>680255</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>431683</v>
+        <v>434390</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>457128</v>
+        <v>457286</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>410255</v>
+        <v>410631</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>351042</v>
+        <v>349351</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>511728</v>
+        <v>514651</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>656842</v>
+        <v>656096</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>485426</v>
+        <v>486344</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>514383</v>
+        <v>516801</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>961291</v>
+        <v>965529</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1128807</v>
+        <v>1129876</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>911676</v>
+        <v>913108</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>878418</v>
+        <v>881343</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>495628</v>
+        <v>499596</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>525067</v>
+        <v>521252</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>471030</v>
+        <v>469797</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>414870</v>
+        <v>413277</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>579144</v>
+        <v>581219</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>720908</v>
+        <v>719725</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>549016</v>
+        <v>551403</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>573129</v>
+        <v>573592</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1059992</v>
+        <v>1055910</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1218979</v>
+        <v>1223578</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>999988</v>
+        <v>1001096</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>971474</v>
+        <v>970244</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>363363</v>
+        <v>362424</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>395186</v>
+        <v>394580</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>289439</v>
+        <v>288789</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>345894</v>
+        <v>348263</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>435644</v>
+        <v>431232</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>482740</v>
+        <v>481719</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>349087</v>
+        <v>352229</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>421439</v>
+        <v>418022</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>814494</v>
+        <v>812435</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>895735</v>
+        <v>895406</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>651954</v>
+        <v>654922</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>776893</v>
+        <v>781933</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>429245</v>
+        <v>425686</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>455089</v>
+        <v>455235</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>347870</v>
+        <v>345760</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>411933</v>
+        <v>411251</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>497225</v>
+        <v>496394</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>544732</v>
+        <v>542610</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>405838</v>
+        <v>406607</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>477741</v>
+        <v>475000</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>908050</v>
+        <v>906249</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>984810</v>
+        <v>984061</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>736259</v>
+        <v>738250</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>864232</v>
+        <v>866761</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>180108</v>
+        <v>179677</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>207432</v>
+        <v>204600</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>148721</v>
+        <v>149999</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>407321</v>
+        <v>404028</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>160373</v>
+        <v>162160</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>240292</v>
+        <v>240065</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>191256</v>
+        <v>192681</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>458026</v>
+        <v>454960</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>353481</v>
+        <v>353316</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>459865</v>
+        <v>457344</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>349886</v>
+        <v>357975</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>880557</v>
+        <v>879617</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>222386</v>
+        <v>222699</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>254400</v>
+        <v>253048</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>192618</v>
+        <v>192544</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>473892</v>
+        <v>476183</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>196872</v>
+        <v>198656</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>285516</v>
+        <v>282471</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>237213</v>
+        <v>238884</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>515126</v>
+        <v>510047</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>406602</v>
+        <v>409678</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>523119</v>
+        <v>524277</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>416273</v>
+        <v>418852</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>968519</v>
+        <v>967742</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1333082</v>
+        <v>1331116</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1616278</v>
+        <v>1615185</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1565662</v>
+        <v>1561652</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1387951</v>
+        <v>1385755</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1730461</v>
+        <v>1731416</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2129510</v>
+        <v>2134033</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1875807</v>
+        <v>1876048</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1814774</v>
+        <v>1822400</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3101364</v>
+        <v>3089518</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3775368</v>
+        <v>3773128</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>3470877</v>
+        <v>3472694</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>3227078</v>
+        <v>3237352</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1443800</v>
+        <v>1444650</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1729987</v>
+        <v>1737032</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1683267</v>
+        <v>1681177</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1510659</v>
+        <v>1512994</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1846868</v>
+        <v>1846005</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2247626</v>
+        <v>2254322</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1999043</v>
+        <v>1994720</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1926952</v>
+        <v>1926701</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>3256217</v>
+        <v>3259525</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>3945184</v>
+        <v>3951701</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>3638912</v>
+        <v>3642126</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>3412117</v>
+        <v>3404908</v>
       </c>
     </row>
     <row r="24">
